--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandonlan/Desktop/Colaberry/Plotly Dash Heroku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{230CA1BF-53D0-0E4D-97FA-17C5E8241B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{55FAF0FF-F9DD-6646-9318-440C3EA6A427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{6B3F6AC7-AC55-004C-9D4D-2767788C23E4}"/>
+    <workbookView xWindow="2760" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{6B3F6AC7-AC55-004C-9D4D-2767788C23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="MIT_SOLVE_Confirmed_Matches" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>MENTOR</t>
   </si>
@@ -41,7 +41,13 @@
     <t>COMMENTS</t>
   </si>
   <si>
+    <t>Elpis Solar</t>
+  </si>
+  <si>
     <t>SOLVER</t>
+  </si>
+  <si>
+    <t>Henkel</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108CC873-A10D-4D46-916E-E586E32E4C62}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B4"/>
@@ -411,10 +417,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandonlan/Desktop/Colaberry/Plotly Dash Heroku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{55FAF0FF-F9DD-6646-9318-440C3EA6A427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D939A6B-B464-FC49-906C-A59F12729E17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{6B3F6AC7-AC55-004C-9D4D-2767788C23E4}"/>
+    <workbookView xWindow="4060" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{6B3F6AC7-AC55-004C-9D4D-2767788C23E4}"/>
   </bookViews>
   <sheets>
     <sheet name="MIT_SOLVE_Confirmed_Matches" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>MENTOR</t>
   </si>
@@ -41,10 +41,22 @@
     <t>COMMENTS</t>
   </si>
   <si>
+    <t>SOLVER</t>
+  </si>
+  <si>
+    <t>MIT Environmental Solutions Initative (John Fernandez)</t>
+  </si>
+  <si>
     <t>Elpis Solar</t>
   </si>
   <si>
-    <t>SOLVER</t>
+    <t>LLamasoft</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>Dost Education</t>
   </si>
   <si>
     <t>Henkel</t>
@@ -399,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108CC873-A10D-4D46-916E-E586E32E4C62}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,7 +429,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -425,10 +437,34 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandonlan/Desktop/Colaberry/Plotly Dash Heroku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D939A6B-B464-FC49-906C-A59F12729E17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{056404B0-BC02-944A-A5FE-45D1595731A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{6B3F6AC7-AC55-004C-9D4D-2767788C23E4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>MENTOR</t>
   </si>
@@ -44,22 +44,10 @@
     <t>SOLVER</t>
   </si>
   <si>
-    <t>MIT Environmental Solutions Initative (John Fernandez)</t>
+    <t>Blue Sky Analytics</t>
   </si>
   <si>
-    <t>Elpis Solar</t>
-  </si>
-  <si>
-    <t>LLamasoft</t>
-  </si>
-  <si>
-    <t>Capital One</t>
-  </si>
-  <si>
-    <t>Dost Education</t>
-  </si>
-  <si>
-    <t>Henkel</t>
+    <t>Schmidt Marine Technology Partners</t>
   </si>
 </sst>
 </file>
@@ -411,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108CC873-A10D-4D46-916E-E586E32E4C62}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,36 +423,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
         <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandonlan/Desktop/Colaberry/Plotly Dash Heroku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{056404B0-BC02-944A-A5FE-45D1595731A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67189E1A-83ED-7843-AA80-0BB19B3264D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{6B3F6AC7-AC55-004C-9D4D-2767788C23E4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>MENTOR</t>
   </si>
@@ -44,10 +44,37 @@
     <t>SOLVER</t>
   </si>
   <si>
+    <t>Elpis Solar</t>
+  </si>
+  <si>
+    <t>LLamasoft</t>
+  </si>
+  <si>
     <t>Blue Sky Analytics</t>
   </si>
   <si>
     <t>Schmidt Marine Technology Partners</t>
+  </si>
+  <si>
+    <t>Dost Education</t>
+  </si>
+  <si>
+    <t>Henkel</t>
+  </si>
+  <si>
+    <t>Sitra</t>
+  </si>
+  <si>
+    <t>Fannie Mae</t>
+  </si>
+  <si>
+    <t>RAAJI</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>AIR-INK: Air-Pollution to ink</t>
   </si>
 </sst>
 </file>
@@ -399,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108CC873-A10D-4D46-916E-E586E32E4C62}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,10 +452,50 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandonlan/Desktop/Colaberry/Plotly Dash Heroku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67189E1A-83ED-7843-AA80-0BB19B3264D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F3EC3F-687A-BD4C-8A7B-5CB410A002E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{6B3F6AC7-AC55-004C-9D4D-2767788C23E4}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A9E2EC56-D121-B548-806B-5CB352888F27}"/>
   </bookViews>
   <sheets>
-    <sheet name="MIT_SOLVE_Confirmed_Matches" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,48 +33,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>COMMENTS</t>
+  </si>
   <si>
     <t>MENTOR</t>
   </si>
   <si>
-    <t>COMMENTS</t>
-  </si>
-  <si>
     <t>SOLVER</t>
   </si>
   <si>
-    <t>Elpis Solar</t>
+    <t>AIR-INK: Air-Pollution to ink</t>
+  </si>
+  <si>
+    <t>MIT Environmental Solutions Initative (John Fernandez)</t>
+  </si>
+  <si>
+    <t>Putnam Associates</t>
   </si>
   <si>
     <t>LLamasoft</t>
   </si>
   <si>
-    <t>Blue Sky Analytics</t>
-  </si>
-  <si>
-    <t>Schmidt Marine Technology Partners</t>
-  </si>
-  <si>
-    <t>Dost Education</t>
-  </si>
-  <si>
-    <t>Henkel</t>
-  </si>
-  <si>
-    <t>Sitra</t>
-  </si>
-  <si>
-    <t>Fannie Mae</t>
-  </si>
-  <si>
-    <t>RAAJI</t>
-  </si>
-  <si>
-    <t>Capital One</t>
-  </si>
-  <si>
-    <t>AIR-INK: Air-Pollution to ink</t>
+    <t>BioCellection</t>
   </si>
 </sst>
 </file>
@@ -425,77 +407,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108CC873-A10D-4D46-916E-E586E32E4C62}">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405FC69E-0A82-5044-B0E6-FD8BA3E9E6F6}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" customWidth="1"/>
-    <col min="2" max="2" width="65.5" customWidth="1"/>
-    <col min="3" max="3" width="61.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandonlan/Desktop/Colaberry/Plotly Dash Heroku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F3EC3F-687A-BD4C-8A7B-5CB410A002E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5274D2F0-2BE4-BA43-B005-5DD5E3BE1D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A9E2EC56-D121-B548-806B-5CB352888F27}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>COMMENTS</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>SOLVER</t>
+  </si>
+  <si>
+    <t>Capital One</t>
   </si>
   <si>
     <t>AIR-INK: Air-Pollution to ink</t>
@@ -408,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405FC69E-0A82-5044-B0E6-FD8BA3E9E6F6}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
@@ -434,26 +437,34 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -1,83 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandonlan/Desktop/Colaberry/Plotly Dash Heroku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5274D2F0-2BE4-BA43-B005-5DD5E3BE1D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A9E2EC56-D121-B548-806B-5CB352888F27}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17440" windowWidth="28040" xWindow="2780" yWindow="1560"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>COMMENTS</t>
-  </si>
-  <si>
-    <t>MENTOR</t>
-  </si>
-  <si>
-    <t>SOLVER</t>
-  </si>
-  <si>
-    <t>Capital One</t>
-  </si>
-  <si>
-    <t>AIR-INK: Air-Pollution to ink</t>
-  </si>
-  <si>
-    <t>MIT Environmental Solutions Initative (John Fernandez)</t>
-  </si>
-  <si>
-    <t>Putnam Associates</t>
-  </si>
-  <si>
-    <t>LLamasoft</t>
-  </si>
-  <si>
-    <t>BioCellection</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,24 +43,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -410,64 +419,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405FC69E-0A82-5044-B0E6-FD8BA3E9E6F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="37.6640625"/>
+    <col customWidth="1" max="2" min="2" width="43.1640625"/>
+    <col customWidth="1" max="3" min="3" width="31.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MENTOR</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SOLVER</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COMMENTS</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -454,17 +454,9 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -435,6 +435,7 @@
     <col customWidth="1" max="1" min="1" width="37.6640625"/>
     <col customWidth="1" max="2" min="2" width="43.1640625"/>
     <col customWidth="1" max="3" min="3" width="31.83203125"/>
+    <col customWidth="1" max="4" min="4" width="43.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -453,10 +454,171 @@
           <t>COMMENTS</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COUNT OF MATCHES FOR MENTOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sitra</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Elpis Solar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2020-08-12 11:26:08.345513</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Henkel</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Elpis Solar</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2020-08-12 11:26:13.624047</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Schmidt Marine Technology Partners</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Elpis Solar</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2020-08-12 11:26:17.071498</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MIT Environmental Solutions Initative (John Fernandez)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Elpis Solar</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2020-08-12 11:26:19.341374</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LLamasoft</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Elpis Solar</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2020-08-12 11:26:22.244173</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MIT Environmental Solutions Initative (John Fernandez)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dost Education</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2020-08-12 11:26:35.773545</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LLamasoft</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dost Education</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2020-08-12 11:26:41.084667</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>COMMENTS</t>
+          <t>DATE OF MATCH</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -460,32 +460,77 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sitra</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LLamasoft</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dost Education</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2020-08-12 12:15:02.277686</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Henkel</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Elpis Solar</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2020-08-12 11:26:08.345513</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2020-08-12 12:15:35.194096</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MIT Environmental Solutions Initative (John Fernandez)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Elpis Solar</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2020-08-12 12:15:43.228838</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Henkel</t>
+          <t>LLamasoft</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -495,130 +540,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2020-08-12 11:26:13.624047</t>
+          <t>2020-08-12 12:20:06.761334</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Schmidt Marine Technology Partners</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Elpis Solar</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2020-08-12 11:26:17.071498</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MIT Environmental Solutions Initative (John Fernandez)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Elpis Solar</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2020-08-12 11:26:19.341374</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LLamasoft</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Elpis Solar</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2020-08-12 11:26:22.244173</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MIT Environmental Solutions Initative (John Fernandez)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Dost Education</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2020-08-12 11:26:35.773545</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LLamasoft</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Dost Education</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2020-08-12 11:26:41.084667</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -1,33 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandonlan/Desktop/Colaberry/Plotly Dash Heroku/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F55FA4A-E63B-944F-B632-6C215B48433D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17440" windowWidth="28040" xWindow="2780" yWindow="1560"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>MENTOR</t>
+  </si>
+  <si>
+    <t>SOLVER</t>
+  </si>
+  <si>
+    <t>DATE OF MATCH</t>
+  </si>
+  <si>
+    <t>COUNT OF MATCHES FOR MENTOR</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,83 +65,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,137 +382,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
+      <selection activeCell="A2" sqref="A2:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="37.6640625"/>
-    <col customWidth="1" max="2" min="2" width="43.1640625"/>
-    <col customWidth="1" max="3" min="3" width="31.83203125"/>
-    <col customWidth="1" max="4" min="4" width="43.5"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>MENTOR</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SOLVER</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DATE OF MATCH</t>
-        </is>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>COUNT OF MATCHES FOR MENTOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>LLamasoft</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dost Education</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2020-08-12 12:15:02.277686</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Henkel</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Elpis Solar</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2020-08-12 12:15:35.194096</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MIT Environmental Solutions Initative (John Fernandez)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Elpis Solar</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2020-08-12 12:15:43.228838</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13"/>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>LLamasoft</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Elpis Solar</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2020-08-12 12:20:06.761334</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -1,55 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandonlan/Desktop/Colaberry/Plotly Dash Heroku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F55FA4A-E63B-944F-B632-6C215B48433D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17440" windowWidth="28040" xWindow="2780" yWindow="1560"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>MENTOR</t>
-  </si>
-  <si>
-    <t>SOLVER</t>
-  </si>
-  <si>
-    <t>DATE OF MATCH</t>
-  </si>
-  <si>
-    <t>COUNT OF MATCHES FOR MENTOR</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,24 +43,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,36 +419,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" customWidth="1"/>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="37.6640625"/>
+    <col customWidth="1" max="2" min="2" width="43.1640625"/>
+    <col customWidth="1" max="3" min="3" width="31.83203125"/>
+    <col customWidth="1" max="4" min="4" width="43.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MENTOR</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SOLVER</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DATE OF MATCH</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COUNT OF MATCHES FOR MENTOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Henkel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Elpis Solar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2020-08-24 13:04:36.786908</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/MIT_SOLVE_Confirmed_Matches.xlsx
+++ b/MIT_SOLVE_Confirmed_Matches.xlsx
@@ -1,33 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandonlan/Desktop/Colaberry/Plotly Dash Heroku/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201A74DD-F7CD-0945-92C0-77AF69AE907D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17440" windowWidth="28040" xWindow="2780" yWindow="1560"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>SOLVER</t>
+  </si>
+  <si>
+    <t>DATE OF MATCH</t>
+  </si>
+  <si>
+    <t>COUNT OF MATCHES FOR MENTOR</t>
+  </si>
+  <si>
+    <t>Henkel</t>
+  </si>
+  <si>
+    <t>Elpis Solar</t>
+  </si>
+  <si>
+    <t>2020-08-24 13:04:36.786908</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>PARTNER</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,83 +77,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,70 +394,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="37.6640625"/>
-    <col customWidth="1" max="2" min="2" width="43.1640625"/>
-    <col customWidth="1" max="3" min="3" width="31.83203125"/>
-    <col customWidth="1" max="4" min="4" width="43.5"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>MENTOR</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SOLVER</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DATE OF MATCH</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>COUNT OF MATCHES FOR MENTOR</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Henkel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Elpis Solar</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2020-08-24 13:04:36.786908</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>